--- a/public/import/importCarFeeDetail.xlsx
+++ b/public/import/importCarFeeDetail.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\vip\MicroCommunityWeb\public\import\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8988BE-AD3B-46BE-A318-A152EC09FF8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="车辆缴费历史" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
-  <si>
-    <t>单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼栋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>和HC费用项费用名称一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,67 +37,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缴费金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收费项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写系统中的楼栋编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写系统中的单元编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写系统中的房屋编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须和费用管理中的费用项设置中的收费项目名称保持一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写历史缴费周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果有缴费说明 请填写值这里，不要超过200字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间格式为 YYYY-MM-DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元为单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缴费时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车牌号</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应缴金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实缴金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收银员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工导入</t>
+  </si>
+  <si>
+    <t>说明：</t>
+  </si>
+  <si>
+    <t>收费项目</t>
+  </si>
+  <si>
+    <t>必须和费用管理中的费用项设置中的收费项目名称保持一致</t>
+  </si>
+  <si>
+    <t>缴费周期</t>
+  </si>
+  <si>
+    <t>请填写历史缴费周期</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>时间格式为 YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>缴费金额</t>
+  </si>
+  <si>
+    <t>元为单位</t>
+  </si>
+  <si>
+    <t>必填，如果有缴费说明 请填写值这里，水电费读数建议写到这里，不要超过200字，如果没有则填写手工导入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆车牌号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +125,12 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -214,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -249,7 +253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -426,47 +430,48 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -474,13 +479,19 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -497,13 +508,22 @@
       <c r="G2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -520,16 +540,22 @@
       <c r="G3">
         <v>1000</v>
       </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
       <c r="J3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -546,75 +572,75 @@
       <c r="G4">
         <v>1000</v>
       </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
       <c r="J4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J6" t="s">
-        <v>2</v>
-      </c>
+    <row r="6" spans="1:12">
       <c r="K6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:12">
       <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="K8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J9" t="s">
-        <v>5</v>
-      </c>
+    <row r="9" spans="1:12">
       <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J10" t="s">
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:12">
       <c r="K10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="K11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J12" t="s">
-        <v>8</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="K12" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
